--- a/Test Audio Files.xlsx
+++ b/Test Audio Files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laza9\OneDrive\Documents\raf\DU Projekat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CE4E4E9-3945-4E75-BDB7-A61A89BED2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A476E150-3F91-414D-8C38-831F35C84EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45C4032D-DA80-4483-98D9-C58DD5AB6B49}"/>
   </bookViews>
@@ -389,7 +389,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,10 +428,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/test_audio/test (5).wav</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
